--- a/output_validation/03_dimension_percentage_total_OCHA.xlsx
+++ b/output_validation/03_dimension_percentage_total_OCHA.xlsx
@@ -55,10 +55,10 @@
     <t># Protected environment</t>
   </si>
   <si>
-    <t>% Not falling within the PiN dimensions</t>
-  </si>
-  <si>
-    <t># Not falling within the PiN dimensions</t>
+    <t>% Not in need</t>
+  </si>
+  <si>
+    <t># Not in need</t>
   </si>
   <si>
     <t>% Tot in PiN Dimensions</t>

--- a/output_validation/03_dimension_percentage_total_OCHA.xlsx
+++ b/output_validation/03_dimension_percentage_total_OCHA.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="37">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="40">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -64,61 +64,70 @@
     <t># Tot in PiN Dimensions</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -546,7 +555,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>94127</v>
+        <v>206737</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -555,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -573,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>91.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>86039</v>
+        <v>206737</v>
       </c>
       <c r="N2">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -593,13 +602,13 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>49284</v>
+        <v>240015</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>32027</v>
+        <v>240015</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -608,28 +617,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1197</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14556</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>70.5</v>
+        <v>100</v>
       </c>
       <c r="O3">
-        <v>34728</v>
+        <v>240015</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -640,13 +649,13 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>71100</v>
+        <v>49284</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>23440</v>
+        <v>49284</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -667,16 +676,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>47660</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="O4">
-        <v>23440</v>
+        <v>49284</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -687,13 +696,13 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>79357</v>
+        <v>469612</v>
       </c>
       <c r="D5">
-        <v>75.5</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>59918</v>
+        <v>469612</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -708,22 +717,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9458</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9981</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>87.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="O5">
-        <v>69376</v>
+        <v>469612</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -734,25 +743,25 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>206737</v>
+        <v>94127</v>
       </c>
       <c r="D6">
-        <v>73.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E6">
-        <v>152033</v>
+        <v>65556</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>28571</v>
       </c>
       <c r="H6">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>29376</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -761,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>25327</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>87.7</v>
+        <v>100</v>
       </c>
       <c r="O6">
-        <v>181410</v>
+        <v>94127</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -781,25 +790,25 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>284225</v>
+        <v>85275</v>
       </c>
       <c r="D7">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>41690</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6.8</v>
+        <v>100</v>
       </c>
       <c r="I7">
-        <v>19308</v>
+        <v>85275</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -808,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>206236</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>27.4</v>
+        <v>100</v>
       </c>
       <c r="O7">
-        <v>77989</v>
+        <v>85275</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -828,13 +837,13 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>114132</v>
+        <v>173573</v>
       </c>
       <c r="D8">
-        <v>15.9</v>
+        <v>71.8</v>
       </c>
       <c r="E8">
-        <v>18169</v>
+        <v>124582</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -843,28 +852,28 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>24933</v>
       </c>
       <c r="J8">
-        <v>4.8</v>
+        <v>13.9</v>
       </c>
       <c r="K8">
-        <v>5522</v>
+        <v>24058</v>
       </c>
       <c r="L8">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>90441</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>20.8</v>
+        <v>100</v>
       </c>
       <c r="O8">
-        <v>23692</v>
+        <v>173573</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -875,7 +884,7 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>82380</v>
+        <v>103387</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -905,7 +914,7 @@
         <v>100</v>
       </c>
       <c r="M9">
-        <v>82380</v>
+        <v>103387</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -922,13 +931,13 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>77970</v>
+        <v>93763</v>
       </c>
       <c r="D10">
-        <v>32.2</v>
+        <v>58.1</v>
       </c>
       <c r="E10">
-        <v>25129</v>
+        <v>54469</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -949,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>67.8</v>
+        <v>41.9</v>
       </c>
       <c r="M10">
-        <v>52840</v>
+        <v>39294</v>
       </c>
       <c r="N10">
-        <v>32.2</v>
+        <v>58.1</v>
       </c>
       <c r="O10">
-        <v>25129</v>
+        <v>54469</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -972,10 +981,10 @@
         <v>469612</v>
       </c>
       <c r="D11">
-        <v>3.8</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>17848</v>
+        <v>469612</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -984,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>46956</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -996,16 +1005,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>404809</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="O11">
-        <v>64803</v>
+        <v>469612</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1016,19 +1025,19 @@
         <v>33</v>
       </c>
       <c r="C12">
-        <v>93763</v>
+        <v>114132</v>
       </c>
       <c r="D12">
-        <v>14.6</v>
+        <v>61.4</v>
       </c>
       <c r="E12">
-        <v>13670</v>
+        <v>70028</v>
       </c>
       <c r="F12">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>7752</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1043,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>77.2</v>
+        <v>38.6</v>
       </c>
       <c r="M12">
-        <v>72341</v>
+        <v>44104</v>
       </c>
       <c r="N12">
-        <v>22.8</v>
+        <v>61.4</v>
       </c>
       <c r="O12">
-        <v>21422</v>
+        <v>70028</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1063,43 +1072,43 @@
         <v>33</v>
       </c>
       <c r="C13">
-        <v>103387</v>
+        <v>94050</v>
       </c>
       <c r="D13">
-        <v>54.2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>55986</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3865</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>8139</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>4628</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>29.8</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>30769</v>
+        <v>94050</v>
       </c>
       <c r="N13">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>72618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1110,19 +1119,19 @@
         <v>33</v>
       </c>
       <c r="C14">
-        <v>94050</v>
+        <v>206737</v>
       </c>
       <c r="D14">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>38011</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="G14">
-        <v>3802</v>
+        <v>17765</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1137,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>55.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="M14">
-        <v>52237</v>
+        <v>188972</v>
       </c>
       <c r="N14">
-        <v>44.5</v>
+        <v>8.6</v>
       </c>
       <c r="O14">
-        <v>41813</v>
+        <v>17765</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1157,25 +1166,25 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>240015</v>
+        <v>94127</v>
       </c>
       <c r="D15">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>18643</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="H15">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>10061</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1184,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>88</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="M15">
-        <v>211311</v>
+        <v>86039</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="O15">
-        <v>28704</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1204,25 +1213,25 @@
         <v>33</v>
       </c>
       <c r="C16">
-        <v>173573</v>
+        <v>85275</v>
       </c>
       <c r="D16">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>29739</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>7328</v>
       </c>
       <c r="H16">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>22884</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1231,16 +1240,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>69.7</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="M16">
-        <v>120951</v>
+        <v>77948</v>
       </c>
       <c r="N16">
-        <v>30.3</v>
+        <v>8.6</v>
       </c>
       <c r="O16">
-        <v>52623</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1251,13 +1260,13 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>70760</v>
+        <v>82380</v>
       </c>
       <c r="D17">
-        <v>6.9</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>4877</v>
+        <v>53534</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1266,28 +1275,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2515</v>
       </c>
       <c r="L17">
-        <v>93.09999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="M17">
-        <v>65883</v>
+        <v>24331</v>
       </c>
       <c r="N17">
-        <v>6.9</v>
+        <v>70.5</v>
       </c>
       <c r="O17">
-        <v>4877</v>
+        <v>58049</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1298,13 +1307,13 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>81840</v>
+        <v>284225</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>184701</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1313,28 +1322,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6901</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>8677</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>29.5</v>
       </c>
       <c r="M18">
-        <v>81840</v>
+        <v>83946</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>200279</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1345,13 +1354,13 @@
         <v>33</v>
       </c>
       <c r="C19">
-        <v>85275</v>
+        <v>70760</v>
       </c>
       <c r="D19">
-        <v>27.4</v>
+        <v>65</v>
       </c>
       <c r="E19">
-        <v>23345</v>
+        <v>45983</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1360,28 +1369,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1718</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="L19">
-        <v>72.59999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="M19">
-        <v>61931</v>
+        <v>20899</v>
       </c>
       <c r="N19">
-        <v>27.4</v>
+        <v>70.5</v>
       </c>
       <c r="O19">
-        <v>23345</v>
+        <v>49861</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1446,25 +1455,25 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>13447</v>
+        <v>34288</v>
       </c>
       <c r="D2">
-        <v>13.1</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>1761</v>
+        <v>9590</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2292</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1479,80 +1488,80 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>69.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="M2">
-        <v>9394</v>
+        <v>24698</v>
       </c>
       <c r="N2">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="O2">
-        <v>4052</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>7041</v>
+        <v>67088</v>
       </c>
       <c r="D3">
-        <v>36.9</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>2600</v>
+        <v>67088</v>
       </c>
       <c r="F3">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3289</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>53.3</v>
+        <v>100</v>
       </c>
       <c r="O3">
-        <v>3752</v>
+        <v>67088</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>10157</v>
+        <v>29534</v>
       </c>
       <c r="D4">
-        <v>16.4</v>
+        <v>57.2</v>
       </c>
       <c r="E4">
-        <v>1662</v>
+        <v>16882</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1561,57 +1570,57 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2903</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4718</v>
       </c>
       <c r="L4">
-        <v>55.1</v>
+        <v>26.9</v>
       </c>
       <c r="M4">
-        <v>5592</v>
+        <v>7934</v>
       </c>
       <c r="N4">
-        <v>44.9</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="O4">
-        <v>4566</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>11337</v>
+        <v>13447</v>
       </c>
       <c r="D5">
-        <v>65.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>7438</v>
+        <v>13447</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1620,33 +1629,33 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2678</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>76.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="O5">
-        <v>8659</v>
+        <v>13447</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>29534</v>
+        <v>11337</v>
       </c>
       <c r="D6">
-        <v>85.8</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>25351</v>
+        <v>11337</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1661,45 +1670,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2398</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O6">
-        <v>27749</v>
+        <v>11337</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>40604</v>
+        <v>10157</v>
       </c>
       <c r="D7">
-        <v>64.7</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>26251</v>
+        <v>1928</v>
       </c>
       <c r="F7">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>3682</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1708,45 +1717,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.699999999999999</v>
+        <v>26.2</v>
       </c>
       <c r="K7">
-        <v>3930</v>
+        <v>2662</v>
       </c>
       <c r="L7">
-        <v>16.6</v>
+        <v>54.8</v>
       </c>
       <c r="M7">
-        <v>6739</v>
+        <v>5567</v>
       </c>
       <c r="N7">
-        <v>83.40000000000001</v>
+        <v>45.2</v>
       </c>
       <c r="O7">
-        <v>33864</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>16305</v>
+        <v>14770</v>
       </c>
       <c r="D8">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1761,39 +1770,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>83.8</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>13667</v>
+        <v>14770</v>
       </c>
       <c r="N8">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>11138</v>
+        <v>29534</v>
       </c>
       <c r="D9">
-        <v>50.8</v>
+        <v>13.1</v>
       </c>
       <c r="E9">
-        <v>5656</v>
+        <v>3867</v>
       </c>
       <c r="F9">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>1752</v>
+        <v>5034</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1808,39 +1817,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>33.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="M9">
-        <v>3730</v>
+        <v>20633</v>
       </c>
       <c r="N9">
-        <v>66.5</v>
+        <v>30.1</v>
       </c>
       <c r="O9">
-        <v>7409</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>13395</v>
+        <v>13447</v>
       </c>
       <c r="D10">
-        <v>35.8</v>
+        <v>13.1</v>
       </c>
       <c r="E10">
-        <v>4800</v>
+        <v>1761</v>
       </c>
       <c r="F10">
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>1149</v>
+        <v>2292</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1849,45 +1858,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>50.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="M10">
-        <v>6760</v>
+        <v>9394</v>
       </c>
       <c r="N10">
-        <v>49.5</v>
+        <v>30.1</v>
       </c>
       <c r="O10">
-        <v>6635</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>14770</v>
+        <v>12182</v>
       </c>
       <c r="D11">
-        <v>45.6</v>
+        <v>13.1</v>
       </c>
       <c r="E11">
-        <v>6733</v>
+        <v>1595</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2076</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1896,116 +1905,163 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2559</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>37.1</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="M11">
-        <v>5478</v>
+        <v>8511</v>
       </c>
       <c r="N11">
-        <v>62.9</v>
+        <v>30.1</v>
       </c>
       <c r="O11">
-        <v>9292</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>34288</v>
+        <v>11769</v>
       </c>
       <c r="D12">
-        <v>55.3</v>
+        <v>36.9</v>
       </c>
       <c r="E12">
-        <v>18969</v>
+        <v>4346</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="I12">
-        <v>1543</v>
+        <v>789</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="L12">
-        <v>40.2</v>
+        <v>46.7</v>
       </c>
       <c r="M12">
-        <v>13775</v>
+        <v>5498</v>
       </c>
       <c r="N12">
-        <v>59.8</v>
+        <v>53.3</v>
       </c>
       <c r="O12">
-        <v>20512</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>24796</v>
+        <v>40604</v>
       </c>
       <c r="D13">
-        <v>81.5</v>
+        <v>36.9</v>
       </c>
       <c r="E13">
-        <v>20203</v>
+        <v>14993</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2774</v>
       </c>
       <c r="H13">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="I13">
-        <v>1345</v>
+        <v>2722</v>
       </c>
       <c r="J13">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="K13">
-        <v>1378</v>
+        <v>1146</v>
       </c>
       <c r="L13">
-        <v>7.5</v>
+        <v>46.7</v>
       </c>
       <c r="M13">
-        <v>1870</v>
+        <v>18968</v>
       </c>
       <c r="N13">
-        <v>92.5</v>
+        <v>53.3</v>
       </c>
       <c r="O13">
-        <v>22926</v>
+        <v>21636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>10109</v>
+      </c>
+      <c r="D14">
+        <v>36.9</v>
+      </c>
+      <c r="E14">
+        <v>3733</v>
+      </c>
+      <c r="F14">
+        <v>6.8</v>
+      </c>
+      <c r="G14">
+        <v>691</v>
+      </c>
+      <c r="H14">
+        <v>6.7</v>
+      </c>
+      <c r="I14">
+        <v>678</v>
+      </c>
+      <c r="J14">
+        <v>2.8</v>
+      </c>
+      <c r="K14">
+        <v>285</v>
+      </c>
+      <c r="L14">
+        <v>46.7</v>
+      </c>
+      <c r="M14">
+        <v>4722</v>
+      </c>
+      <c r="N14">
+        <v>53.3</v>
+      </c>
+      <c r="O14">
+        <v>5386</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2070,19 +2126,19 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>6723</v>
+        <v>3520</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>2893</v>
+        <v>3520</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2103,33 +2159,33 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3831</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="O2">
-        <v>2893</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>3520</v>
+        <v>33544</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>2360</v>
+        <v>33544</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2138,45 +2194,45 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>88.7</v>
+        <v>100</v>
       </c>
       <c r="O3">
-        <v>3124</v>
+        <v>33544</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>5079</v>
+        <v>14767</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>20.2</v>
       </c>
       <c r="E4">
-        <v>560</v>
+        <v>2978</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2185,51 +2241,51 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4467</v>
       </c>
       <c r="L4">
-        <v>77.40000000000001</v>
+        <v>49.6</v>
       </c>
       <c r="M4">
-        <v>3932</v>
+        <v>7322</v>
       </c>
       <c r="N4">
-        <v>22.6</v>
+        <v>50.4</v>
       </c>
       <c r="O4">
-        <v>1146</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>5668</v>
+        <v>6723</v>
       </c>
       <c r="D5">
-        <v>46.9</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>2660</v>
+        <v>6723</v>
       </c>
       <c r="F5">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2238,39 +2294,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>45.4</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2571</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>54.6</v>
+        <v>100</v>
       </c>
       <c r="O5">
-        <v>3098</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>14767</v>
+        <v>6091</v>
       </c>
       <c r="D6">
-        <v>94.09999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="E6">
-        <v>13891</v>
+        <v>971</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2291,45 +2347,45 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.9</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="M6">
-        <v>876</v>
+        <v>5120</v>
       </c>
       <c r="N6">
-        <v>94.09999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="O6">
-        <v>13891</v>
+        <v>971</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <v>20302</v>
+        <v>5668</v>
       </c>
       <c r="D7">
-        <v>28.1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>5712</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>6244</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>49.2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2789</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2338,16 +2394,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>41.1</v>
+        <v>50.8</v>
       </c>
       <c r="M7">
-        <v>8346</v>
+        <v>2879</v>
       </c>
       <c r="N7">
-        <v>58.9</v>
+        <v>49.2</v>
       </c>
       <c r="O7">
-        <v>11956</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2355,16 +2411,16 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>8152</v>
+        <v>12398</v>
       </c>
       <c r="D8">
-        <v>21.2</v>
+        <v>43.5</v>
       </c>
       <c r="E8">
-        <v>1726</v>
+        <v>5395</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2373,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1393</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2385,39 +2441,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>61.7</v>
+        <v>56.5</v>
       </c>
       <c r="M8">
-        <v>5034</v>
+        <v>7003</v>
       </c>
       <c r="N8">
-        <v>38.3</v>
+        <v>43.5</v>
       </c>
       <c r="O8">
-        <v>3118</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>5569</v>
+        <v>33544</v>
       </c>
       <c r="D9">
-        <v>76.40000000000001</v>
+        <v>44.9</v>
       </c>
       <c r="E9">
-        <v>4252</v>
+        <v>15047</v>
       </c>
       <c r="F9">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2432,45 +2488,45 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>55.1</v>
       </c>
       <c r="M9">
-        <v>614</v>
+        <v>18497</v>
       </c>
       <c r="N9">
-        <v>89</v>
+        <v>44.9</v>
       </c>
       <c r="O9">
-        <v>4956</v>
+        <v>15047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>6697</v>
+        <v>14767</v>
       </c>
       <c r="D10">
-        <v>30.4</v>
+        <v>43</v>
       </c>
       <c r="E10">
-        <v>2034</v>
+        <v>6353</v>
       </c>
       <c r="F10">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2479,33 +2535,33 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>47.7</v>
+        <v>57</v>
       </c>
       <c r="M10">
-        <v>3193</v>
+        <v>8414</v>
       </c>
       <c r="N10">
-        <v>52.3</v>
+        <v>43</v>
       </c>
       <c r="O10">
-        <v>3504</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>7385</v>
+        <v>6723</v>
       </c>
       <c r="D11">
-        <v>41.6</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>3069</v>
+        <v>2893</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2514,45 +2570,45 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>50.6</v>
+        <v>57</v>
       </c>
       <c r="M11">
-        <v>3740</v>
+        <v>3831</v>
       </c>
       <c r="N11">
-        <v>49.4</v>
+        <v>43</v>
       </c>
       <c r="O11">
-        <v>3645</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>17144</v>
+        <v>6091</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>6683</v>
+        <v>2621</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2573,63 +2629,157 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M12">
-        <v>10461</v>
+        <v>3471</v>
       </c>
       <c r="N12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O12">
-        <v>6683</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>12398</v>
+        <v>5884</v>
       </c>
       <c r="D13">
-        <v>36.3</v>
+        <v>67</v>
       </c>
       <c r="E13">
-        <v>4496</v>
+        <v>3944</v>
       </c>
       <c r="F13">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1523</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>7.2</v>
+        <v>18.8</v>
       </c>
       <c r="I13">
-        <v>890</v>
+        <v>1107</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L13">
-        <v>44.3</v>
+        <v>11.3</v>
       </c>
       <c r="M13">
-        <v>5489</v>
+        <v>662</v>
       </c>
       <c r="N13">
-        <v>55.7</v>
+        <v>88.7</v>
       </c>
       <c r="O13">
-        <v>6909</v>
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>20302</v>
+      </c>
+      <c r="D14">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>13608</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>18.8</v>
+      </c>
+      <c r="I14">
+        <v>3821</v>
+      </c>
+      <c r="J14">
+        <v>2.9</v>
+      </c>
+      <c r="K14">
+        <v>587</v>
+      </c>
+      <c r="L14">
+        <v>11.3</v>
+      </c>
+      <c r="M14">
+        <v>2286</v>
+      </c>
+      <c r="N14">
+        <v>88.7</v>
+      </c>
+      <c r="O14">
+        <v>18016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>5054</v>
+      </c>
+      <c r="D15">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>3388</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>18.8</v>
+      </c>
+      <c r="I15">
+        <v>951</v>
+      </c>
+      <c r="J15">
+        <v>2.9</v>
+      </c>
+      <c r="K15">
+        <v>146</v>
+      </c>
+      <c r="L15">
+        <v>11.3</v>
+      </c>
+      <c r="M15">
+        <v>569</v>
+      </c>
+      <c r="N15">
+        <v>88.7</v>
+      </c>
+      <c r="O15">
+        <v>4485</v>
       </c>
     </row>
   </sheetData>
@@ -2639,7 +2789,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2694,49 +2844,284 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>44301</v>
+      </c>
+      <c r="D2">
+        <v>49.7</v>
+      </c>
+      <c r="E2">
+        <v>22014</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>4418</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>17.3</v>
+      </c>
+      <c r="K2">
+        <v>7662</v>
+      </c>
+      <c r="L2">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>10207</v>
+      </c>
+      <c r="N2">
+        <v>77</v>
+      </c>
+      <c r="O2">
+        <v>34094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>20170</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>20170</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>20170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>18273</v>
+      </c>
+      <c r="D4">
+        <v>21.8</v>
+      </c>
+      <c r="E4">
+        <v>3983</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>78.2</v>
+      </c>
+      <c r="M4">
+        <v>14290</v>
+      </c>
+      <c r="N4">
+        <v>21.8</v>
+      </c>
+      <c r="O4">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>17005</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>17005</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>17005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="C2">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>15236</v>
+      </c>
+      <c r="D6">
+        <v>76.7</v>
+      </c>
+      <c r="E6">
+        <v>11682</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>23.3</v>
+      </c>
+      <c r="M6">
+        <v>3554</v>
+      </c>
+      <c r="N6">
+        <v>76.7</v>
+      </c>
+      <c r="O6">
+        <v>11682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
         <v>22154</v>
       </c>
-      <c r="D2">
-        <v>53</v>
-      </c>
-      <c r="E2">
-        <v>11747</v>
-      </c>
-      <c r="F2">
-        <v>4.1</v>
-      </c>
-      <c r="G2">
-        <v>913</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>7.2</v>
-      </c>
-      <c r="K2">
-        <v>1584</v>
-      </c>
-      <c r="L2">
-        <v>35.7</v>
-      </c>
-      <c r="M2">
-        <v>7909</v>
-      </c>
-      <c r="N2">
-        <v>64.3</v>
-      </c>
-      <c r="O2">
-        <v>14245</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>22154</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/03_dimension_percentage_total_OCHA.xlsx
+++ b/output_validation/03_dimension_percentage_total_OCHA.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="40">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="37">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -64,70 +64,61 @@
     <t># Tot in PiN Dimensions</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -555,43 +546,43 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>206737</v>
+        <v>94127</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>21147</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="M2">
-        <v>206737</v>
+        <v>69230</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>26.4</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>24896</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -602,43 +593,43 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>240015</v>
+        <v>49284</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>63.7</v>
       </c>
       <c r="E3">
-        <v>240015</v>
+        <v>31395</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1812</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1712</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14199</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>71.2</v>
       </c>
       <c r="O3">
-        <v>240015</v>
+        <v>35085</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -649,43 +640,43 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>49284</v>
+        <v>71100</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>38.4</v>
       </c>
       <c r="E4">
-        <v>49284</v>
+        <v>27280</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3119</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>38598</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>45.7</v>
       </c>
       <c r="O4">
-        <v>49284</v>
+        <v>32503</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -696,43 +687,43 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>469612</v>
+        <v>79357</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>64.8</v>
       </c>
       <c r="E5">
-        <v>469612</v>
+        <v>51386</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2113</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1568</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>23469</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="O5">
-        <v>469612</v>
+        <v>55888</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -743,43 +734,43 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>94127</v>
+        <v>206737</v>
       </c>
       <c r="D6">
-        <v>69.59999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="E6">
-        <v>65556</v>
+        <v>146116</v>
       </c>
       <c r="F6">
-        <v>30.4</v>
+        <v>4.8</v>
       </c>
       <c r="G6">
-        <v>28571</v>
+        <v>9915</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4921</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>44841</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>78.3</v>
       </c>
       <c r="O6">
-        <v>94127</v>
+        <v>161896</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -790,25 +781,25 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>85275</v>
+        <v>284225</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>57733</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>10632</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>3.4</v>
       </c>
       <c r="I7">
-        <v>85275</v>
+        <v>9648</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -817,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>206212</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>27.4</v>
       </c>
       <c r="O7">
-        <v>85275</v>
+        <v>78013</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -837,43 +828,43 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>173573</v>
+        <v>114132</v>
       </c>
       <c r="D8">
-        <v>71.8</v>
+        <v>20.1</v>
       </c>
       <c r="E8">
-        <v>124582</v>
+        <v>22952</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="H8">
-        <v>14.4</v>
+        <v>0.9</v>
       </c>
       <c r="I8">
-        <v>24933</v>
+        <v>994</v>
       </c>
       <c r="J8">
-        <v>13.9</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>24058</v>
+        <v>582</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>88451</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>22.5</v>
       </c>
       <c r="O8">
-        <v>173573</v>
+        <v>25682</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -884,25 +875,25 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>103387</v>
+        <v>82380</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>8635</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6236</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5169</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -911,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>75.7</v>
       </c>
       <c r="M9">
-        <v>103387</v>
+        <v>62340</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>20041</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -931,19 +922,19 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>93763</v>
+        <v>77970</v>
       </c>
       <c r="D10">
-        <v>58.1</v>
+        <v>20.5</v>
       </c>
       <c r="E10">
-        <v>54469</v>
+        <v>15970</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -958,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>41.9</v>
+        <v>78.2</v>
       </c>
       <c r="M10">
-        <v>39294</v>
+        <v>60939</v>
       </c>
       <c r="N10">
-        <v>58.1</v>
+        <v>21.8</v>
       </c>
       <c r="O10">
-        <v>54469</v>
+        <v>17031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -981,40 +972,40 @@
         <v>469612</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>10.5</v>
       </c>
       <c r="E11">
-        <v>469612</v>
+        <v>49146</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>16642</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>37043</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3379</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>363402</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>22.6</v>
       </c>
       <c r="O11">
-        <v>469612</v>
+        <v>106210</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1025,43 +1016,43 @@
         <v>33</v>
       </c>
       <c r="C12">
-        <v>114132</v>
+        <v>93763</v>
       </c>
       <c r="D12">
-        <v>61.4</v>
+        <v>11.1</v>
       </c>
       <c r="E12">
-        <v>70028</v>
+        <v>10420</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>6942</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4224</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8794</v>
       </c>
       <c r="L12">
-        <v>38.6</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="M12">
-        <v>44104</v>
+        <v>63382</v>
       </c>
       <c r="N12">
-        <v>61.4</v>
+        <v>32.4</v>
       </c>
       <c r="O12">
-        <v>70028</v>
+        <v>30381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1072,43 +1063,43 @@
         <v>33</v>
       </c>
       <c r="C13">
-        <v>94050</v>
+        <v>103387</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>41743</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2033</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>8076</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3779</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>46.2</v>
       </c>
       <c r="M13">
-        <v>94050</v>
+        <v>47756</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>53.8</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>55631</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1119,43 +1110,43 @@
         <v>33</v>
       </c>
       <c r="C14">
-        <v>206737</v>
+        <v>94050</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>24270</v>
       </c>
       <c r="F14">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="G14">
-        <v>17765</v>
+        <v>7317</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="L14">
-        <v>91.40000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="M14">
-        <v>188972</v>
+        <v>61865</v>
       </c>
       <c r="N14">
-        <v>8.6</v>
+        <v>34.2</v>
       </c>
       <c r="O14">
-        <v>17765</v>
+        <v>32185</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1166,25 +1157,25 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>94127</v>
+        <v>240015</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>17999</v>
       </c>
       <c r="F15">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="G15">
-        <v>8088</v>
+        <v>10577</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15231</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1193,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>91.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="M15">
-        <v>86039</v>
+        <v>196208</v>
       </c>
       <c r="N15">
-        <v>8.6</v>
+        <v>18.3</v>
       </c>
       <c r="O15">
-        <v>8088</v>
+        <v>43807</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1213,43 +1204,43 @@
         <v>33</v>
       </c>
       <c r="C16">
-        <v>85275</v>
+        <v>173573</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>59683</v>
       </c>
       <c r="F16">
-        <v>8.6</v>
+        <v>5.2</v>
       </c>
       <c r="G16">
-        <v>7328</v>
+        <v>8980</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>9354</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="L16">
-        <v>91.40000000000001</v>
+        <v>53.8</v>
       </c>
       <c r="M16">
-        <v>77948</v>
+        <v>93404</v>
       </c>
       <c r="N16">
-        <v>8.6</v>
+        <v>46.2</v>
       </c>
       <c r="O16">
-        <v>7328</v>
+        <v>80170</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1260,43 +1251,43 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>82380</v>
+        <v>70760</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>10.9</v>
       </c>
       <c r="E17">
-        <v>53534</v>
+        <v>7743</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2528</v>
       </c>
       <c r="H17">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2515</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>29.5</v>
+        <v>85.5</v>
       </c>
       <c r="M17">
-        <v>24331</v>
+        <v>60490</v>
       </c>
       <c r="N17">
-        <v>70.5</v>
+        <v>14.5</v>
       </c>
       <c r="O17">
-        <v>58049</v>
+        <v>10271</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1307,43 +1298,43 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>284225</v>
+        <v>81840</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>3.6</v>
       </c>
       <c r="E18">
-        <v>184701</v>
+        <v>2975</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2695</v>
       </c>
       <c r="H18">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>6901</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="K18">
-        <v>8677</v>
+        <v>484</v>
       </c>
       <c r="L18">
-        <v>29.5</v>
+        <v>92.5</v>
       </c>
       <c r="M18">
-        <v>83946</v>
+        <v>75687</v>
       </c>
       <c r="N18">
-        <v>70.5</v>
+        <v>7.5</v>
       </c>
       <c r="O18">
-        <v>200279</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1354,43 +1345,43 @@
         <v>33</v>
       </c>
       <c r="C19">
-        <v>70760</v>
+        <v>85275</v>
       </c>
       <c r="D19">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>45983</v>
+        <v>6856</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3707</v>
       </c>
       <c r="H19">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="I19">
-        <v>1718</v>
+        <v>417</v>
       </c>
       <c r="J19">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>29.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="M19">
-        <v>20899</v>
+        <v>74295</v>
       </c>
       <c r="N19">
-        <v>70.5</v>
+        <v>12.9</v>
       </c>
       <c r="O19">
-        <v>49861</v>
+        <v>10980</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1455,31 +1446,31 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>34288</v>
+        <v>13447</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>19.1</v>
       </c>
       <c r="E2">
-        <v>9590</v>
+        <v>2564</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1488,321 +1479,321 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>72</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="M2">
-        <v>24698</v>
+        <v>9556</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="O2">
-        <v>9590</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>67088</v>
+        <v>7041</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>46.7</v>
       </c>
       <c r="E3">
-        <v>67088</v>
+        <v>3290</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2317</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="O3">
-        <v>67088</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4">
-        <v>29534</v>
+        <v>10157</v>
       </c>
       <c r="D4">
-        <v>57.2</v>
+        <v>30.3</v>
       </c>
       <c r="E4">
-        <v>16882</v>
+        <v>3078</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1695</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>5.7</v>
       </c>
       <c r="K4">
-        <v>4718</v>
+        <v>584</v>
       </c>
       <c r="L4">
-        <v>26.9</v>
+        <v>45.1</v>
       </c>
       <c r="M4">
-        <v>7934</v>
+        <v>4586</v>
       </c>
       <c r="N4">
-        <v>73.09999999999999</v>
+        <v>54.9</v>
       </c>
       <c r="O4">
-        <v>21600</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>13447</v>
+        <v>11337</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>65.2</v>
       </c>
       <c r="E5">
-        <v>13447</v>
+        <v>7392</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2741</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>75.8</v>
       </c>
       <c r="O5">
-        <v>13447</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>11337</v>
+        <v>29534</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E6">
-        <v>11337</v>
+        <v>24850</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3076</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="O6">
-        <v>11337</v>
+        <v>28614</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>10157</v>
+        <v>40604</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>55.3</v>
       </c>
       <c r="E7">
-        <v>1928</v>
+        <v>22466</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="J7">
-        <v>26.2</v>
+        <v>6.7</v>
       </c>
       <c r="K7">
-        <v>2662</v>
+        <v>2740</v>
       </c>
       <c r="L7">
-        <v>54.8</v>
+        <v>34.5</v>
       </c>
       <c r="M7">
-        <v>5567</v>
+        <v>14021</v>
       </c>
       <c r="N7">
-        <v>45.2</v>
+        <v>65.5</v>
       </c>
       <c r="O7">
-        <v>4591</v>
+        <v>26583</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>14770</v>
+        <v>16305</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3860</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="M8">
-        <v>14770</v>
+        <v>10879</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>29534</v>
+        <v>11138</v>
       </c>
       <c r="D9">
-        <v>13.1</v>
+        <v>43.9</v>
       </c>
       <c r="E9">
-        <v>3867</v>
+        <v>4886</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>6.9</v>
       </c>
       <c r="G9">
-        <v>5034</v>
+        <v>766</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1811,257 +1802,210 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="L9">
-        <v>69.90000000000001</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>20633</v>
+        <v>4790</v>
       </c>
       <c r="N9">
-        <v>30.1</v>
+        <v>57</v>
       </c>
       <c r="O9">
-        <v>8900</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>13447</v>
+        <v>13395</v>
       </c>
       <c r="D10">
-        <v>13.1</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1761</v>
+        <v>3618</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>6.4</v>
       </c>
       <c r="G10">
-        <v>2292</v>
+        <v>856</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1413</v>
       </c>
       <c r="L10">
-        <v>69.90000000000001</v>
+        <v>50.4</v>
       </c>
       <c r="M10">
-        <v>9394</v>
+        <v>6748</v>
       </c>
       <c r="N10">
-        <v>30.1</v>
+        <v>49.6</v>
       </c>
       <c r="O10">
-        <v>4052</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>12182</v>
+        <v>14770</v>
       </c>
       <c r="D11">
-        <v>13.1</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>1595</v>
+        <v>7534</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>0.6</v>
       </c>
       <c r="G11">
-        <v>2076</v>
+        <v>86</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2342</v>
       </c>
       <c r="L11">
-        <v>69.90000000000001</v>
+        <v>30.4</v>
       </c>
       <c r="M11">
-        <v>8511</v>
+        <v>4494</v>
       </c>
       <c r="N11">
-        <v>30.1</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="O11">
-        <v>3671</v>
+        <v>10275</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>11769</v>
+        <v>34288</v>
       </c>
       <c r="D12">
-        <v>36.9</v>
+        <v>40.2</v>
       </c>
       <c r="E12">
-        <v>4346</v>
+        <v>13794</v>
       </c>
       <c r="F12">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="G12">
-        <v>804</v>
+        <v>1269</v>
       </c>
       <c r="H12">
-        <v>6.7</v>
+        <v>2.6</v>
       </c>
       <c r="I12">
-        <v>789</v>
+        <v>876</v>
       </c>
       <c r="J12">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>46.7</v>
+        <v>53.5</v>
       </c>
       <c r="M12">
-        <v>5498</v>
+        <v>18348</v>
       </c>
       <c r="N12">
-        <v>53.3</v>
+        <v>46.5</v>
       </c>
       <c r="O12">
-        <v>6271</v>
+        <v>15939</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>40604</v>
+        <v>24796</v>
       </c>
       <c r="D13">
-        <v>36.9</v>
+        <v>78</v>
       </c>
       <c r="E13">
-        <v>14993</v>
+        <v>19344</v>
       </c>
       <c r="F13">
-        <v>6.8</v>
+        <v>2.2</v>
       </c>
       <c r="G13">
-        <v>2774</v>
+        <v>542</v>
       </c>
       <c r="H13">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2722</v>
+        <v>752</v>
       </c>
       <c r="J13">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="K13">
-        <v>1146</v>
+        <v>176</v>
       </c>
       <c r="L13">
-        <v>46.7</v>
+        <v>16.1</v>
       </c>
       <c r="M13">
-        <v>18968</v>
+        <v>3983</v>
       </c>
       <c r="N13">
-        <v>53.3</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="O13">
-        <v>21636</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>10109</v>
-      </c>
-      <c r="D14">
-        <v>36.9</v>
-      </c>
-      <c r="E14">
-        <v>3733</v>
-      </c>
-      <c r="F14">
-        <v>6.8</v>
-      </c>
-      <c r="G14">
-        <v>691</v>
-      </c>
-      <c r="H14">
-        <v>6.7</v>
-      </c>
-      <c r="I14">
-        <v>678</v>
-      </c>
-      <c r="J14">
-        <v>2.8</v>
-      </c>
-      <c r="K14">
-        <v>285</v>
-      </c>
-      <c r="L14">
-        <v>46.7</v>
-      </c>
-      <c r="M14">
-        <v>4722</v>
-      </c>
-      <c r="N14">
-        <v>53.3</v>
-      </c>
-      <c r="O14">
-        <v>5386</v>
+        <v>20813</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2126,31 +2070,31 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>3520</v>
+        <v>6723</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>34.6</v>
       </c>
       <c r="E2">
-        <v>3520</v>
+        <v>2327</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2159,80 +2103,80 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4030</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>40.1</v>
       </c>
       <c r="O2">
-        <v>3520</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>33544</v>
+        <v>3520</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>53.6</v>
       </c>
       <c r="E3">
-        <v>33544</v>
+        <v>1888</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>19.1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="O3">
-        <v>33544</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>14767</v>
+        <v>5079</v>
       </c>
       <c r="D4">
-        <v>20.2</v>
+        <v>48.6</v>
       </c>
       <c r="E4">
-        <v>2978</v>
+        <v>2469</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2241,92 +2185,92 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J4">
-        <v>30.3</v>
+        <v>0.6</v>
       </c>
       <c r="K4">
-        <v>4467</v>
+        <v>33</v>
       </c>
       <c r="L4">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="M4">
-        <v>7322</v>
+        <v>2498</v>
       </c>
       <c r="N4">
-        <v>50.4</v>
+        <v>50.8</v>
       </c>
       <c r="O4">
-        <v>7445</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>6723</v>
+        <v>5668</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>6723</v>
+        <v>3002</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>40.7</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2306</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>59.3</v>
       </c>
       <c r="O5">
-        <v>6723</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>6091</v>
+        <v>14767</v>
       </c>
       <c r="D6">
-        <v>15.9</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E6">
-        <v>971</v>
+        <v>13575</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2335,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2347,45 +2291,45 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>84.09999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="M6">
-        <v>5120</v>
+        <v>1117</v>
       </c>
       <c r="N6">
-        <v>15.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="O6">
-        <v>971</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
       <c r="C7">
-        <v>5668</v>
+        <v>20302</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7903</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="H7">
-        <v>49.2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2789</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2394,16 +2338,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>50.8</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>2879</v>
+        <v>11160</v>
       </c>
       <c r="N7">
-        <v>49.2</v>
+        <v>45</v>
       </c>
       <c r="O7">
-        <v>2789</v>
+        <v>9142</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2411,28 +2355,28 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>12398</v>
+        <v>8152</v>
       </c>
       <c r="D8">
-        <v>43.5</v>
+        <v>41.6</v>
       </c>
       <c r="E8">
-        <v>5395</v>
+        <v>3391</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2441,186 +2385,186 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>56.5</v>
+        <v>47.3</v>
       </c>
       <c r="M8">
-        <v>7003</v>
+        <v>3858</v>
       </c>
       <c r="N8">
-        <v>43.5</v>
+        <v>52.7</v>
       </c>
       <c r="O8">
-        <v>5395</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>33544</v>
+        <v>5569</v>
       </c>
       <c r="D9">
-        <v>44.9</v>
+        <v>43</v>
       </c>
       <c r="E9">
-        <v>15047</v>
+        <v>2397</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="L9">
-        <v>55.1</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>18497</v>
+        <v>1561</v>
       </c>
       <c r="N9">
-        <v>44.9</v>
+        <v>72</v>
       </c>
       <c r="O9">
-        <v>15047</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>14767</v>
+        <v>6697</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>25.3</v>
       </c>
       <c r="E10">
-        <v>6353</v>
+        <v>1691</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="L10">
-        <v>57</v>
+        <v>53.4</v>
       </c>
       <c r="M10">
-        <v>8414</v>
+        <v>3575</v>
       </c>
       <c r="N10">
-        <v>43</v>
+        <v>46.6</v>
       </c>
       <c r="O10">
-        <v>6353</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>6723</v>
+        <v>7385</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>52.4</v>
       </c>
       <c r="E11">
-        <v>2893</v>
+        <v>3871</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="L11">
-        <v>57</v>
+        <v>32.9</v>
       </c>
       <c r="M11">
-        <v>3831</v>
+        <v>2428</v>
       </c>
       <c r="N11">
-        <v>43</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="O11">
-        <v>2893</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>6091</v>
+        <v>17144</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>19.8</v>
       </c>
       <c r="E12">
-        <v>2621</v>
+        <v>3395</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>20.1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3440</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2629,157 +2573,63 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>57</v>
+        <v>59.3</v>
       </c>
       <c r="M12">
-        <v>3471</v>
+        <v>10164</v>
       </c>
       <c r="N12">
-        <v>43</v>
+        <v>40.7</v>
       </c>
       <c r="O12">
-        <v>2621</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>5884</v>
+        <v>12398</v>
       </c>
       <c r="D13">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>3944</v>
+        <v>6072</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="H13">
-        <v>18.8</v>
+        <v>2.7</v>
       </c>
       <c r="I13">
-        <v>1107</v>
+        <v>335</v>
       </c>
       <c r="J13">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="K13">
-        <v>170</v>
+        <v>663</v>
       </c>
       <c r="L13">
-        <v>11.3</v>
+        <v>36.7</v>
       </c>
       <c r="M13">
-        <v>662</v>
+        <v>4546</v>
       </c>
       <c r="N13">
-        <v>88.7</v>
+        <v>63.3</v>
       </c>
       <c r="O13">
-        <v>5222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14">
-        <v>20302</v>
-      </c>
-      <c r="D14">
-        <v>67</v>
-      </c>
-      <c r="E14">
-        <v>13608</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>18.8</v>
-      </c>
-      <c r="I14">
-        <v>3821</v>
-      </c>
-      <c r="J14">
-        <v>2.9</v>
-      </c>
-      <c r="K14">
-        <v>587</v>
-      </c>
-      <c r="L14">
-        <v>11.3</v>
-      </c>
-      <c r="M14">
-        <v>2286</v>
-      </c>
-      <c r="N14">
-        <v>88.7</v>
-      </c>
-      <c r="O14">
-        <v>18016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>5054</v>
-      </c>
-      <c r="D15">
-        <v>67</v>
-      </c>
-      <c r="E15">
-        <v>3388</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>18.8</v>
-      </c>
-      <c r="I15">
-        <v>951</v>
-      </c>
-      <c r="J15">
-        <v>2.9</v>
-      </c>
-      <c r="K15">
-        <v>146</v>
-      </c>
-      <c r="L15">
-        <v>11.3</v>
-      </c>
-      <c r="M15">
-        <v>569</v>
-      </c>
-      <c r="N15">
-        <v>88.7</v>
-      </c>
-      <c r="O15">
-        <v>4485</v>
+        <v>7852</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +2639,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,284 +2694,49 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>44301</v>
+        <v>22154</v>
       </c>
       <c r="D2">
-        <v>49.7</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>22014</v>
+        <v>13287</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="G2">
-        <v>4418</v>
+        <v>418</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="J2">
-        <v>17.3</v>
+        <v>5.2</v>
       </c>
       <c r="K2">
-        <v>7662</v>
+        <v>1150</v>
       </c>
       <c r="L2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M2">
-        <v>10207</v>
+        <v>7094</v>
       </c>
       <c r="N2">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="O2">
-        <v>34094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>20170</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>20170</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <v>20170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>18273</v>
-      </c>
-      <c r="D4">
-        <v>21.8</v>
-      </c>
-      <c r="E4">
-        <v>3983</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>78.2</v>
-      </c>
-      <c r="M4">
-        <v>14290</v>
-      </c>
-      <c r="N4">
-        <v>21.8</v>
-      </c>
-      <c r="O4">
-        <v>3983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>17005</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>17005</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="O5">
-        <v>17005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>15236</v>
-      </c>
-      <c r="D6">
-        <v>76.7</v>
-      </c>
-      <c r="E6">
-        <v>11682</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>23.3</v>
-      </c>
-      <c r="M6">
-        <v>3554</v>
-      </c>
-      <c r="N6">
-        <v>76.7</v>
-      </c>
-      <c r="O6">
-        <v>11682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7">
-        <v>22154</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7">
-        <v>22154</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
+        <v>15060</v>
       </c>
     </row>
   </sheetData>
